--- a/data/trans_bre/P57_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P57_R2-Estudios-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,74; -1,86</t>
+          <t>-9,86; -1,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,33; -2,14</t>
+          <t>-11,22; -2,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-38,02; -9,06</t>
+          <t>-38,0; -8,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-30,82; -6,61</t>
+          <t>-31,02; -7,56</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 0,49</t>
+          <t>-5,11; 0,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,57; -6,8</t>
+          <t>-31,25; -7,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,18; 1,66</t>
+          <t>-15,8; 2,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-49,19; -12,83</t>
+          <t>-49,62; -14,48</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 1,96</t>
+          <t>-10,07; 1,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 2,93</t>
+          <t>-8,04; 3,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,04; 5,49</t>
+          <t>-24,42; 4,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 6,6</t>
+          <t>-15,67; 7,66</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,37; -1,73</t>
+          <t>-6,27; -1,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,18; -6,69</t>
+          <t>-23,84; -7,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,02; -5,84</t>
+          <t>-19,74; -6,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,75; -14,51</t>
+          <t>-41,43; -14,9</t>
         </is>
       </c>
     </row>
